--- a/ComputerConfigurator/Resources/Corps.xlsx
+++ b/ComputerConfigurator/Resources/Corps.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
   <si>
     <t>Название</t>
   </si>
@@ -255,7 +255,7 @@
     <t>золотистый</t>
   </si>
   <si>
-    <t>end</t>
+    <t>Corsair Crystal Series 280X RGB [CC-9011137-WW]</t>
   </si>
 </sst>
 </file>
@@ -618,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1243,11 +1243,6 @@
       </c>
       <c r="I21" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
